--- a/bin/Debug/Forms/Leave.xlsx
+++ b/bin/Debug/Forms/Leave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Programs\C#\Projects\TDF\bin\Debug\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef Samir\source\repos\TDF\bin\Debug\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7992088-FB04-49C7-AFF4-8FD5AC15968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460ADC19-EC59-418A-863E-C8FCB9E98F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -548,15 +548,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -615,15 +615,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -682,13 +682,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -749,15 +749,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -816,15 +816,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -883,15 +883,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -950,13 +950,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1017,15 +1017,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:colOff>937260</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1372,27 +1372,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.83203125" customWidth="1"/>
+    <col min="4" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="17" width="9.5" customWidth="1"/>
+    <col min="13" max="17" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="144.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="144.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="37" t="s">
         <v>39</v>
@@ -1413,7 +1413,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1436,7 +1436,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -1459,7 +1459,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -1482,7 +1482,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -1505,7 +1505,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
@@ -1528,7 +1528,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -1551,7 +1551,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="42" t="str">
         <f>"Kindly requested to approve my ("&amp;J8&amp;") Vacation days:"</f>
@@ -1576,7 +1576,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1595,7 +1595,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="41" t="s">
         <v>12</v>
@@ -1618,7 +1618,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="41" t="s">
         <v>13</v>
@@ -1641,7 +1641,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="41" t="s">
         <v>14</v>
@@ -1664,7 +1664,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="41" t="s">
         <v>15</v>
@@ -1687,7 +1687,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
@@ -1710,7 +1710,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1729,7 +1729,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>17</v>
@@ -1755,7 +1755,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
         <v>10</v>
@@ -1781,7 +1781,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1793,7 +1793,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>18</v>
@@ -1809,7 +1809,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="40" t="str">
         <f>IF(ISNUMBER(C17),IF(WEEKDAY(C17+1, 2)=5, C17+3, IF(WEEKDAY(C17+1, 2)=6, C17+2, C17+1)),"")</f>
@@ -1827,7 +1827,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1846,7 +1846,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1906,7 +1906,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="39" t="s">
         <v>30</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="39" t="s">
         <v>31</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="39" t="s">
         <v>38</v>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1972,7 +1972,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1984,7 +1984,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1994,7 +1994,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2004,7 +2004,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -2014,7 +2014,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -2024,7 +2024,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2034,7 +2034,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -2044,7 +2044,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -2054,7 +2054,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -2064,7 +2064,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -2074,7 +2074,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -2115,15 +2115,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:colOff>716280</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2137,15 +2137,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:colOff>716280</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2159,13 +2159,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:colOff>716280</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2181,15 +2181,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:colOff>716280</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>933450</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2203,15 +2203,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:colOff>205740</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2225,15 +2225,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:colOff>205740</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2247,13 +2247,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:colOff>205740</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2269,15 +2269,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
+                    <xdr:colOff>937260</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:colOff>205740</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/bin/Debug/Forms/Leave.xlsx
+++ b/bin/Debug/Forms/Leave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef Samir\source\repos\TDF\bin\Debug\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Programs\C#\Projects\repos\TDF\bin\Debug\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460ADC19-EC59-418A-863E-C8FCB9E98F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3613F70A-72B2-4D3E-97DA-2A1948E6C4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -446,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,15 +551,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -615,15 +618,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -682,13 +685,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -749,15 +752,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -816,15 +819,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>205740</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -883,15 +886,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>205740</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -950,13 +953,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>205740</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1017,15 +1020,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>937260</xdr:colOff>
+          <xdr:colOff>933450</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>205740</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1372,27 +1375,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.77734375" customWidth="1"/>
+    <col min="4" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="17" width="9.44140625" customWidth="1"/>
+    <col min="13" max="17" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="144.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="144.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="37" t="s">
         <v>39</v>
@@ -1413,12 +1416,12 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="6"/>
@@ -1436,7 +1439,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -1459,7 +1462,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -1482,7 +1485,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -1505,7 +1508,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
@@ -1528,7 +1531,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -1551,7 +1554,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="42" t="str">
         <f>"Kindly requested to approve my ("&amp;J8&amp;") Vacation days:"</f>
@@ -1576,7 +1579,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1595,7 +1598,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="41" t="s">
         <v>12</v>
@@ -1609,7 +1612,9 @@
       <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24" t="b">
+        <v>0</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1618,7 +1623,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="41" t="s">
         <v>13</v>
@@ -1641,7 +1646,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="41" t="s">
         <v>14</v>
@@ -1664,7 +1669,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="41" t="s">
         <v>15</v>
@@ -1687,7 +1692,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
@@ -1710,7 +1715,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1729,7 +1734,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>17</v>
@@ -1755,7 +1760,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
         <v>10</v>
@@ -1781,7 +1786,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1793,7 +1798,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>18</v>
@@ -1809,7 +1814,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="40" t="str">
         <f>IF(ISNUMBER(C17),IF(WEEKDAY(C17+1, 2)=5, C17+3, IF(WEEKDAY(C17+1, 2)=6, C17+2, C17+1)),"")</f>
@@ -1827,7 +1832,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1846,7 +1851,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="12" t="s">
         <v>35</v>
@@ -1870,7 +1875,7 @@
       </c>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -1894,7 +1899,7 @@
       </c>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1906,7 +1911,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="39" t="s">
         <v>30</v>
@@ -1925,7 +1930,7 @@
       </c>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="39" t="s">
         <v>31</v>
@@ -1944,7 +1949,7 @@
       </c>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="39" t="s">
         <v>38</v>
@@ -1960,7 +1965,7 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1972,7 +1977,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1984,7 +1989,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1994,7 +1999,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -2004,7 +2009,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -2014,7 +2019,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -2024,7 +2029,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2034,7 +2039,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -2044,7 +2049,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -2054,7 +2059,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -2064,7 +2069,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -2074,7 +2079,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -2115,15 +2120,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>716280</xdr:colOff>
+                    <xdr:colOff>714375</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>182880</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2137,15 +2142,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>716280</xdr:colOff>
+                    <xdr:colOff>714375</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2159,13 +2164,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>716280</xdr:colOff>
+                    <xdr:colOff>714375</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2181,15 +2186,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>716280</xdr:colOff>
+                    <xdr:colOff>714375</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2203,15 +2208,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>182880</xdr:rowOff>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2225,15 +2230,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2247,13 +2252,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2269,15 +2274,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>937260</xdr:colOff>
+                    <xdr:colOff>933450</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
